--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1075,148 +1075,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -2763,22 +2763,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K17" t="n">
         <v>2.52</v>
       </c>
       <c r="L17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2790,7 +2790,7 @@
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q17" t="n">
         <v>1.36</v>
@@ -2811,7 +2811,7 @@
         <v>2.87</v>
       </c>
       <c r="W17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2820,13 +2820,13 @@
         <v>9.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>10.25</v>
@@ -2871,7 +2871,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>37</v>
@@ -2895,10 +2895,10 @@
         <v>16</v>
       </c>
       <c r="AY17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA17" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1253,58 +1253,58 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1319,46 +1319,46 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
         <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>90</v>
       </c>
       <c r="AG7" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>60</v>
@@ -1370,22 +1370,22 @@
         <v>400</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>90</v>
@@ -1431,40 +1431,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1476,10 +1476,10 @@
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>9.75</v>
@@ -1488,19 +1488,19 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE8" t="n">
         <v>14.5</v>
@@ -1518,7 +1518,7 @@
         <v>18</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>50</v>
@@ -1533,40 +1533,40 @@
         <v>3.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU8" t="n">
         <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
         <v>5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>
@@ -1608,54 +1608,150 @@
           <t>Negeri Sembilan</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>14</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>300</v>
+      </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
     </row>
@@ -1690,54 +1786,150 @@
           <t>Selangor</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>250</v>
+      </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
     </row>
@@ -1772,54 +1964,136 @@
           <t>Johor DT</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.34</v>
+      </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W11" t="n">
+        <v>50</v>
+      </c>
+      <c r="X11" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60</v>
+      </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>175</v>
+      </c>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>90</v>
+      </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>250</v>
+      </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
     </row>
@@ -1855,22 +2129,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -1879,16 +2153,16 @@
         <v>7.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -1897,13 +2171,13 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
         <v>23</v>
@@ -1918,10 +2192,10 @@
         <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -1957,19 +2231,19 @@
         <v>6.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ12" t="n">
         <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -1984,7 +2258,7 @@
         <v>3.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
@@ -2243,16 +2517,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -2267,13 +2541,13 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
         <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
         <v>9</v>
@@ -2285,7 +2559,7 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>8.5</v>
@@ -2300,13 +2574,13 @@
         <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>81</v>
@@ -2357,7 +2631,7 @@
         <v>151</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
@@ -2422,7 +2696,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2598,7 +2872,7 @@
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2613,16 +2887,16 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -2655,12 +2929,14 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>67</v>
       </c>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AG16" t="n">
+        <v>1250</v>
+      </c>
       <c r="AH16" t="n">
         <v>7.5</v>
       </c>
@@ -2698,7 +2974,7 @@
         <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -2763,22 +3039,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K17" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -2787,31 +3063,31 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T17" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="U17" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="V17" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -2820,43 +3096,43 @@
         <v>9.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD17" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD17" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL17" t="n">
         <v>25</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
@@ -2865,49 +3141,49 @@
         <v>4.55</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AS17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
         <v>16</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>65</v>
       </c>
       <c r="BA17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1087,7 +1087,7 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>3.25</v>
@@ -1123,7 +1123,7 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1141,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1213,10 +1213,10 @@
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
@@ -1295,13 +1295,13 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
         <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
@@ -1334,7 +1334,7 @@
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI7" t="n">
         <v>14.5</v>
@@ -1343,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
         <v>30</v>
@@ -1352,7 +1352,7 @@
         <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
@@ -1364,7 +1364,7 @@
         <v>60</v>
       </c>
       <c r="AR7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="n">
         <v>400</v>
@@ -1373,7 +1373,7 @@
         <v>2.22</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>90</v>
@@ -1385,7 +1385,7 @@
         <v>17.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>90</v>
@@ -1452,7 +1452,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="K9" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L9" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1636,13 +1636,13 @@
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -1651,76 +1651,76 @@
         <v>3.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y9" t="n">
         <v>7.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG9" t="n">
         <v>250</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS9" t="n">
         <v>150</v>
@@ -1729,28 +1729,28 @@
         <v>3.35</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AZ9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BA9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -1965,48 +1965,48 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>3.84</v>
       </c>
       <c r="S11" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="V11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>50</v>
@@ -2015,81 +2015,85 @@
         <v>175</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>101</v>
+      </c>
       <c r="AA11" t="n">
         <v>300</v>
       </c>
       <c r="AB11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AC11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF11" t="n">
         <v>175</v>
       </c>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>101</v>
+      </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AM11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AU11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AX11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AY11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>7.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2129,13 +2133,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2144,25 +2148,25 @@
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2180,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>17</v>
@@ -2195,13 +2199,13 @@
         <v>51</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
@@ -2213,13 +2217,13 @@
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>15</v>
@@ -2228,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>29</v>
@@ -2243,19 +2247,19 @@
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2314,25 +2318,25 @@
         <v>2.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2347,19 +2351,19 @@
         <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2377,25 +2381,25 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
         <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>15</v>
       </c>
       <c r="AJ13" t="n">
         <v>11</v>
@@ -2407,13 +2411,13 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2428,7 +2432,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2443,16 +2447,16 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2523,10 +2527,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -746,54 +746,150 @@
           <t>Blooming</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>201</v>
+      </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -828,54 +924,150 @@
           <t>Nacional Potosi</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -910,54 +1102,150 @@
           <t>Always Ready</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>126</v>
+      </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -992,54 +1280,150 @@
           <t>Royal Pari</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1075,13 +1459,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
@@ -1090,7 +1474,7 @@
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1105,10 +1489,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1132,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1159,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1168,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>26</v>
@@ -1262,19 +1646,19 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1301,10 +1685,10 @@
         <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1313,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>37</v>
@@ -1334,37 +1718,37 @@
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
         <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
         <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>60</v>
       </c>
       <c r="AR7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS7" t="n">
         <v>400</v>
@@ -1373,28 +1757,28 @@
         <v>2.22</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
         <v>90</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1651,10 +2035,10 @@
         <v>3.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
         <v>7.6</v>
@@ -1787,34 +2171,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4.55</v>
       </c>
       <c r="I10" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>8.300000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>3.42</v>
+        <v>4.45</v>
       </c>
       <c r="Q10" t="n">
         <v>1.72</v>
@@ -1823,112 +2207,112 @@
         <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2.99</v>
+        <v>3.6</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.25</v>
+        <v>16</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="AE10" t="n">
         <v>14</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AK10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL10" t="n">
         <v>9</v>
       </c>
-      <c r="AL10" t="n">
-        <v>10</v>
-      </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AP10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR10" t="n">
         <v>200</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV10" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -1988,13 +2372,13 @@
         <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="R11" t="n">
-        <v>3.84</v>
+        <v>3.98</v>
       </c>
       <c r="S11" t="n">
         <v>1.12</v>
@@ -2003,10 +2387,10 @@
         <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="W11" t="n">
         <v>50</v>
@@ -2333,22 +2717,22 @@
         <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2527,10 +2911,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3043,19 +3427,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
@@ -3067,70 +3451,70 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R17" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="T17" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="V17" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="W17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -3139,55 +3523,55 @@
         <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
         <v>8.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AU17" t="n">
         <v>6.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ17" t="n">
         <v>65</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC17" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -750,7 +750,7 @@
         <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>5.75</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
@@ -1172,13 +1172,13 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>126</v>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
@@ -1281,10 +1281,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
@@ -1459,22 +1459,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1489,16 +1489,16 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1510,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1561,7 +1561,7 @@
         <v>4.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1576,7 +1576,7 @@
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1588,7 +1588,7 @@
         <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1646,19 +1646,19 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1667,16 +1667,16 @@
         <v>2.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.88</v>
@@ -1694,19 +1694,19 @@
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
         <v>16</v>
@@ -1721,7 +1721,7 @@
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>11.25</v>
@@ -1736,49 +1736,49 @@
         <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB7" t="n">
         <v>400</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>500</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1993,148 +1993,148 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="K9" t="n">
         <v>2.45</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA9" t="n">
         <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AF9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>250</v>
       </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>200</v>
-      </c>
       <c r="BA9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2174,52 +2174,52 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4.45</v>
+        <v>3.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T10" t="n">
-        <v>3.6</v>
+        <v>3.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>32</v>
@@ -2234,85 +2234,85 @@
         <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ10" t="n">
         <v>200</v>
       </c>
       <c r="AR10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB10" t="n">
         <v>200</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>37</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>150</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2372,13 +2372,13 @@
         <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>3.98</v>
+        <v>3.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.12</v>
@@ -2387,10 +2387,10 @@
         <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
         <v>50</v>
@@ -2520,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.65</v>
@@ -2529,7 +2529,7 @@
         <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
         <v>2.25</v>
@@ -2541,16 +2541,16 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
         <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2559,13 +2559,13 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2580,28 +2580,28 @@
         <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
@@ -2613,7 +2613,7 @@
         <v>15</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
         <v>7</v>
@@ -2628,7 +2628,7 @@
         <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
         <v>450</v>
@@ -2637,19 +2637,19 @@
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2735,19 +2735,19 @@
         <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2765,7 +2765,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2777,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2801,7 +2801,7 @@
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2816,7 +2816,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2911,10 +2911,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3066,10 +3066,10 @@
         <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
@@ -3081,10 +3081,10 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3099,10 +3099,10 @@
         <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -3117,7 +3117,7 @@
         <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
@@ -3126,10 +3126,10 @@
         <v>19</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3141,7 +3141,7 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
         <v>9.5</v>
@@ -3180,13 +3180,13 @@
         <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>5.5</v>
@@ -3245,16 +3245,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
@@ -3296,13 +3296,13 @@
         <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3326,25 +3326,25 @@
         <v>1250</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3371,16 +3371,16 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3439,10 +3439,10 @@
         <v>2.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3451,28 +3451,28 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R17" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="S17" t="n">
         <v>1.21</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="V17" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3487,31 +3487,31 @@
         <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
         <v>27</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3523,10 +3523,10 @@
         <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AO17" t="n">
         <v>8.75</v>
@@ -3535,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
         <v>35</v>
@@ -3544,31 +3544,31 @@
         <v>90</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.63</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1124,13 +1124,13 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -1169,13 +1169,13 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1196,7 +1196,7 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
@@ -1362,7 +1362,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1646,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
@@ -1655,61 +1655,61 @@
         <v>3.65</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>90</v>
@@ -1721,7 +1721,7 @@
         <v>7.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>11.25</v>
@@ -1742,10 +1742,10 @@
         <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1754,7 +1754,7 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AU7" t="n">
         <v>7.2</v>
@@ -1999,16 +1999,16 @@
         <v>4.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2023,10 +2023,10 @@
         <v>4.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S9" t="n">
         <v>1.26</v>
@@ -2035,25 +2035,25 @@
         <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V9" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y9" t="n">
         <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB9" t="n">
         <v>19</v>
@@ -2074,7 +2074,7 @@
         <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -2095,22 +2095,22 @@
         <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>15</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AR9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS9" t="n">
         <v>175</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2125,10 +2125,10 @@
         <v>40</v>
       </c>
       <c r="AY9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA9" t="n">
         <v>250</v>
@@ -2171,76 +2171,76 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.68</v>
+        <v>4.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.14</v>
+        <v>3.32</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="X10" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
       <c r="Z10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
         <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>14.5</v>
@@ -2252,16 +2252,16 @@
         <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI10" t="n">
         <v>6.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL10" t="n">
         <v>9.25</v>
@@ -2270,10 +2270,10 @@
         <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AO10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP10" t="n">
         <v>35</v>
@@ -2282,13 +2282,13 @@
         <v>200</v>
       </c>
       <c r="AR10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS10" t="n">
         <v>450</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU10" t="n">
         <v>7.9</v>
@@ -2300,16 +2300,16 @@
         <v>3.3</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY10" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB10" t="n">
         <v>200</v>
@@ -2349,57 +2349,57 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.22</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="S11" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="T11" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
@@ -2408,49 +2408,49 @@
         <v>300</v>
       </c>
       <c r="AB11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AM11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="n">
         <v>37</v>
       </c>
-      <c r="AN11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AP11" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
@@ -2459,28 +2459,28 @@
         <v>4.3</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2699,13 +2699,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2714,7 +2714,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2786,28 +2786,28 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2831,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>1.95</v>
@@ -2896,7 +2896,7 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2911,31 +2911,31 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>10</v>
@@ -2956,7 +2956,7 @@
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>1250</v>
@@ -2971,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -2980,7 +2980,7 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
         <v>7</v>
@@ -2992,16 +2992,16 @@
         <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3016,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA14" t="n">
         <v>201</v>
@@ -3245,22 +3245,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3287,13 +3287,13 @@
         <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -3329,7 +3329,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3347,7 +3347,7 @@
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3442,7 +3442,7 @@
         <v>2.55</v>
       </c>
       <c r="L17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3454,13 +3454,13 @@
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="S17" t="n">
         <v>1.21</v>
@@ -3469,40 +3469,40 @@
         <v>3.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V17" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
         <v>10.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
         <v>120</v>
@@ -3514,16 +3514,16 @@
         <v>27</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
         <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
         <v>4.45</v>
@@ -3532,10 +3532,10 @@
         <v>8.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>35</v>
@@ -3556,7 +3556,7 @@
         <v>6.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>17.5</v>
@@ -3568,7 +3568,7 @@
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC17" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
@@ -1495,10 +1495,10 @@
         <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
         <v>1.62</v>
@@ -1516,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
@@ -1531,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1546,10 +1546,10 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>19</v>
@@ -1567,16 +1567,16 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1640,31 +1640,31 @@
         <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J7" t="n">
         <v>2.95</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q7" t="n">
         <v>2.22</v>
@@ -1673,13 +1673,13 @@
         <v>1.52</v>
       </c>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
@@ -1703,34 +1703,34 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>11.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>45</v>
@@ -1754,28 +1754,28 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
         <v>400</v>
@@ -1815,94 +1815,94 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K8" t="n">
         <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="X8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
         <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD8" t="n">
         <v>6.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK8" t="n">
         <v>50</v>
@@ -1914,43 +1914,43 @@
         <v>40</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>40</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY8" t="n">
         <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>
@@ -1993,34 +1993,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
         <v>1.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="Q9" t="n">
         <v>1.52</v>
@@ -2035,16 +2035,16 @@
         <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y9" t="n">
         <v>7.2</v>
@@ -2056,7 +2056,7 @@
         <v>8.75</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
         <v>14.5</v>
@@ -2068,19 +2068,19 @@
         <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="n">
         <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>120</v>
@@ -2092,40 +2092,40 @@
         <v>50</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO9" t="n">
         <v>5.8</v>
       </c>
       <c r="AP9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AR9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS9" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AX9" t="n">
         <v>40</v>
       </c>
       <c r="AY9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ9" t="n">
         <v>300</v>
@@ -2177,13 +2177,13 @@
         <v>4.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.91</v>
@@ -2192,40 +2192,40 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>4.05</v>
+        <v>3.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T10" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X10" t="n">
         <v>29</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
         <v>80</v>
@@ -2234,28 +2234,28 @@
         <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE10" t="n">
         <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
         <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -2264,10 +2264,10 @@
         <v>8.25</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AN10" t="n">
         <v>7.3</v>
@@ -2282,16 +2282,16 @@
         <v>200</v>
       </c>
       <c r="AR10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS10" t="n">
         <v>450</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>70</v>
@@ -2303,7 +2303,7 @@
         <v>6.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>18.5</v>
@@ -2349,22 +2349,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2375,10 +2375,10 @@
         <v>7.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R11" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="S11" t="n">
         <v>1.14</v>
@@ -2387,100 +2387,100 @@
         <v>4.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.93</v>
+        <v>2.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="X11" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
       </c>
       <c r="AA11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
         <v>300</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>175</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>350</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
         <v>11.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN11" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AP11" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.3</v>
+        <v>4.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AY11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2547,10 +2547,10 @@
         <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2699,22 +2699,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2747,16 +2747,16 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
@@ -2765,13 +2765,13 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2780,7 +2780,7 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2798,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2825,7 +2825,7 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
@@ -2881,7 +2881,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
@@ -2890,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>7.5</v>
@@ -2905,34 +2905,34 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
@@ -2941,25 +2941,25 @@
         <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2968,10 +2968,10 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -2980,28 +2980,28 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3016,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA14" t="n">
         <v>201</v>
@@ -3063,16 +3063,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
@@ -3093,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3105,22 +3105,22 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
@@ -3144,16 +3144,16 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3165,10 +3165,10 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3189,10 +3189,10 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3245,22 +3245,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3269,31 +3269,31 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
         <v>11</v>
@@ -3311,13 +3311,13 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>67</v>
@@ -3329,16 +3329,16 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
@@ -3347,7 +3347,7 @@
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3359,10 +3359,10 @@
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3374,13 +3374,13 @@
         <v>4.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3427,22 +3427,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="L17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3451,127 +3451,127 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="T17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="V17" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z17" t="n">
         <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
         <v>11.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AU17" t="n">
         <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>8</v>
@@ -804,40 +804,40 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -849,22 +849,22 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,16 +873,16 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
@@ -946,7 +946,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -955,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -973,7 +973,7 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>10</v>
@@ -985,19 +985,19 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1015,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1057,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1151,22 +1151,22 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1184,25 +1184,25 @@
         <v>126</v>
       </c>
       <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>11</v>
       </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1229,16 +1229,16 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>51</v>
@@ -1281,40 +1281,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1323,22 +1323,22 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,37 +1359,37 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1401,19 +1401,19 @@
         <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>67</v>
@@ -1422,7 +1422,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1459,22 +1459,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1507,13 +1507,13 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
         <v>29</v>
@@ -1522,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1540,31 +1540,31 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
       <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
         <v>23</v>
       </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1585,10 +1585,10 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1691,16 +1691,16 @@
         <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
         <v>7.3</v>
@@ -1724,34 +1724,34 @@
         <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT7" t="n">
         <v>2.37</v>
@@ -1763,22 +1763,22 @@
         <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="K8" t="n">
         <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1842,7 +1842,7 @@
         <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1854,28 +1854,28 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W8" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
         <v>32</v>
@@ -1884,46 +1884,46 @@
         <v>8.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="n">
         <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR8" t="n">
         <v>75</v>
@@ -1935,28 +1935,28 @@
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BA8" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -1993,28 +1993,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="H9" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
@@ -2029,112 +2029,112 @@
         <v>2.22</v>
       </c>
       <c r="S9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="W9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.1</v>
       </c>
-      <c r="X9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.2</v>
-      </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM9" t="n">
         <v>40</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>50</v>
-      </c>
       <c r="AN9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AP9" t="n">
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS9" t="n">
         <v>150</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AX9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AY9" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BA9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB9" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2198,13 +2198,13 @@
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="Q10" t="n">
         <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>1.31</v>
@@ -2234,10 +2234,10 @@
         <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>7.4</v>
@@ -2246,13 +2246,13 @@
         <v>14.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="n">
         <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
         <v>6.1</v>
@@ -2349,22 +2349,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -2387,40 +2387,40 @@
         <v>4.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Y11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
       </c>
       <c r="AA11" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AB11" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC11" t="n">
         <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
@@ -2429,58 +2429,58 @@
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AL11" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AP11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AU11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AW11" t="n">
         <v>3.1</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="BA11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2517,13 +2517,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2532,7 +2532,7 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2553,10 +2553,10 @@
         <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2580,19 +2580,19 @@
         <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2601,13 +2601,13 @@
         <v>6.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>15</v>
@@ -2628,13 +2628,13 @@
         <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS12" t="n">
         <v>450</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2643,7 +2643,7 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX12" t="n">
         <v>8.5</v>
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2699,40 +2699,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2747,16 +2747,16 @@
         <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
@@ -2765,13 +2765,13 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>51</v>
@@ -2780,34 +2780,34 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2825,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2881,16 +2881,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -2899,28 +2899,28 @@
         <v>7.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2929,16 +2929,16 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
         <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2947,13 +2947,13 @@
         <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
@@ -2962,16 +2962,16 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -2998,7 +2998,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>9.5</v>
@@ -3007,7 +3007,7 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>41</v>
@@ -3063,16 +3063,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.05</v>
@@ -3105,10 +3105,10 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
@@ -3141,19 +3141,19 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3165,10 +3165,10 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3192,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3245,22 +3245,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3269,16 +3269,16 @@
         <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>1.57</v>
@@ -3293,28 +3293,28 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3326,40 +3326,40 @@
         <v>1250</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>13</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.25</v>
@@ -3371,22 +3371,22 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3427,22 +3427,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
         <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="L17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3451,22 +3451,22 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="T17" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="U17" t="n">
         <v>1.34</v>
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X17" t="n">
         <v>14.5</v>
@@ -3484,7 +3484,7 @@
         <v>9.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>12</v>
@@ -3493,13 +3493,13 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF17" t="n">
         <v>27</v>
@@ -3508,31 +3508,31 @@
         <v>110</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO17" t="n">
         <v>8.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>23</v>
@@ -3544,10 +3544,10 @@
         <v>80</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
@@ -3556,19 +3556,19 @@
         <v>6.4</v>
       </c>
       <c r="AX17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -762,13 +762,13 @@
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -1121,22 +1121,22 @@
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
@@ -1302,7 +1302,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1311,28 +1311,28 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1347,13 +1347,13 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1380,10 +1380,10 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1410,16 +1410,16 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1459,22 +1459,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1507,22 +1507,22 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
@@ -1540,40 +1540,40 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1585,10 +1585,10 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1637,28 +1637,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>6.81</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
@@ -1679,70 +1679,70 @@
         <v>2.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
         <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
       </c>
       <c r="AG7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>45</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>55</v>
@@ -1751,28 +1751,28 @@
         <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
         <v>2.37</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV7" t="n">
         <v>75</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="n">
         <v>120</v>
@@ -1815,28 +1815,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1851,28 +1851,28 @@
         <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>17.5</v>
@@ -1881,40 +1881,40 @@
         <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM8" t="n">
         <v>45</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1926,31 +1926,31 @@
         <v>37</v>
       </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
         <v>150</v>
@@ -1993,34 +1993,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="H9" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="I9" t="n">
-        <v>6.1</v>
+        <v>9.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L9" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>4.65</v>
+        <v>5.21</v>
       </c>
       <c r="Q9" t="n">
         <v>1.52</v>
@@ -2029,112 +2029,112 @@
         <v>2.22</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T9" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU9" t="n">
         <v>7.1</v>
       </c>
-      <c r="Z9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>400</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB9" t="n">
         <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>350</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.88</v>
+        <v>3.95</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
         <v>1.31</v>
@@ -2213,106 +2213,106 @@
         <v>3.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W10" t="n">
         <v>14</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
         <v>7.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AL10" t="n">
         <v>9.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP10" t="n">
         <v>32</v>
       </c>
-      <c r="AP10" t="n">
-        <v>35</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR10" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
         <v>45</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2349,57 +2349,61 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>1.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.9</v>
+      </c>
       <c r="O11" t="n">
         <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="S11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="T11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="U11" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="X11" t="n">
         <v>250</v>
       </c>
       <c r="Y11" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
@@ -2408,16 +2412,16 @@
         <v>450</v>
       </c>
       <c r="AB11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>250</v>
@@ -2426,58 +2430,58 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AO11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP11" t="n">
         <v>175</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>120</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AV11" t="n">
         <v>150</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AY11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>250</v>
@@ -2520,25 +2524,25 @@
         <v>5.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
         <v>2.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2580,10 +2584,10 @@
         <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
@@ -2646,7 +2650,7 @@
         <v>3.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2699,13 +2703,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2714,37 +2718,37 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>8.5</v>
@@ -2765,7 +2769,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2777,7 +2781,7 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2801,13 +2805,13 @@
         <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2816,7 +2820,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2840,7 +2844,7 @@
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2881,22 +2885,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2911,10 +2915,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2932,13 +2936,13 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2962,34 +2966,34 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>101</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3001,13 +3005,13 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX14" t="n">
         <v>41</v>
@@ -3016,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA14" t="n">
         <v>201</v>
@@ -3063,13 +3067,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
@@ -3078,7 +3082,7 @@
         <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3114,13 +3118,13 @@
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
@@ -3144,7 +3148,7 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3156,7 +3160,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -3189,13 +3193,13 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
@@ -3248,37 +3252,37 @@
         <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>1.57</v>
@@ -3287,10 +3291,10 @@
         <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
@@ -3311,16 +3315,16 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
         <v>1250</v>
@@ -3353,25 +3357,25 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
@@ -3427,22 +3431,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.7</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3451,127 +3455,127 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="S17" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AE17" t="n">
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AR17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV17" t="n">
         <v>32</v>
       </c>
-      <c r="AS17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>30</v>
-      </c>
       <c r="AW17" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA17" t="n">
         <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -1133,10 +1133,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1160,7 +1160,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1205,10 +1205,10 @@
         <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1241,7 +1241,7 @@
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>126</v>
@@ -1281,28 +1281,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.22</v>
@@ -1317,10 +1317,10 @@
         <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1338,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1374,10 +1374,10 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
         <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4.33</v>
@@ -1389,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1410,7 +1410,7 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1459,58 +1459,58 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.63</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1522,40 +1522,40 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>4.75</v>
@@ -1564,43 +1564,43 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1815,46 +1815,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6.9</v>
+        <v>8.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T8" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U8" t="n">
         <v>1.85</v>
@@ -1863,31 +1863,31 @@
         <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
         <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF8" t="n">
         <v>90</v>
@@ -1896,58 +1896,58 @@
         <v>800</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="n">
         <v>45</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>100</v>
@@ -2171,148 +2171,148 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="W10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="n">
         <v>14</v>
       </c>
       <c r="AD10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN10" t="n">
         <v>7.4</v>
       </c>
-      <c r="AE10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>18</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>19</v>
       </c>
       <c r="BA10" t="n">
         <v>45</v>
       </c>
       <c r="BB10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
         <v>7.7</v>
@@ -2358,52 +2358,52 @@
         <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>14.9</v>
+        <v>16.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P11" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="R11" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="S11" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="T11" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="W11" t="n">
         <v>100</v>
       </c>
       <c r="X11" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Y11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Z11" t="n">
         <v>101</v>
@@ -2412,79 +2412,79 @@
         <v>450</v>
       </c>
       <c r="AB11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AP11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AU11" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
@@ -2536,7 +2536,7 @@
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2545,16 +2545,16 @@
         <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2584,7 +2584,7 @@
         <v>41</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC12" t="n">
         <v>10</v>
@@ -2635,7 +2635,7 @@
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
@@ -2721,22 +2721,22 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -3097,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3249,13 +3249,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -3285,10 +3285,10 @@
         <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -3300,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -3309,13 +3309,13 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3330,7 +3330,7 @@
         <v>1250</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3345,13 +3345,13 @@
         <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3366,7 +3366,7 @@
         <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>
@@ -3375,13 +3375,13 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
         <v>81</v>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.35</v>
@@ -3446,7 +3446,7 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3458,25 +3458,25 @@
         <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R17" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="S17" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T17" t="n">
         <v>3.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W17" t="n">
         <v>13.5</v>
@@ -3488,31 +3488,31 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>25</v>
@@ -3524,7 +3524,7 @@
         <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
@@ -3542,7 +3542,7 @@
         <v>27</v>
       </c>
       <c r="AR17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS17" t="n">
         <v>100</v>
@@ -3560,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
@@ -3569,7 +3569,7 @@
         <v>65</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB17" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -759,10 +759,10 @@
         <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -813,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
@@ -831,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -931,10 +931,10 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -973,10 +973,10 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1015,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1057,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1103,112 +1103,112 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.4</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
         <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1217,34 +1217,34 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1296,7 +1296,7 @@
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1317,31 +1317,31 @@
         <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1353,13 +1353,13 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
         <v>13</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1398,7 +1398,7 @@
         <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1459,28 +1459,28 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>3.25</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
         <v>3.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1489,10 +1489,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1501,16 +1501,16 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
@@ -1525,10 +1525,10 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1543,22 +1543,22 @@
         <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1585,22 +1585,22 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -2174,52 +2174,48 @@
         <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12.7</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.05</v>
+        <v>4.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="T10" t="n">
-        <v>3.32</v>
+        <v>3.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X10" t="n">
         <v>30</v>
@@ -2237,25 +2233,25 @@
         <v>40</v>
       </c>
       <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE10" t="n">
         <v>14</v>
       </c>
-      <c r="AD10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>7.1</v>
@@ -2264,19 +2260,19 @@
         <v>8.25</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
       </c>
       <c r="AP10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ10" t="n">
         <v>200</v>
@@ -2288,10 +2284,10 @@
         <v>400</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV10" t="n">
         <v>65</v>
@@ -2303,16 +2299,16 @@
         <v>6.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2352,16 +2348,16 @@
         <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
@@ -2370,37 +2366,37 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="P11" t="n">
         <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
         <v>1.14</v>
       </c>
       <c r="T11" t="n">
-        <v>4.9</v>
+        <v>5.24</v>
       </c>
       <c r="U11" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
         <v>100</v>
       </c>
       <c r="X11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Y11" t="n">
         <v>120</v>
@@ -2415,31 +2411,31 @@
         <v>400</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG11" t="n">
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
         <v>10.5</v>
@@ -2448,10 +2444,10 @@
         <v>40</v>
       </c>
       <c r="AN11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP11" t="n">
         <v>150</v>
@@ -2460,7 +2456,7 @@
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>4.85</v>
+        <v>4.75</v>
       </c>
       <c r="AU11" t="n">
         <v>13.5</v>
@@ -2469,16 +2465,16 @@
         <v>120</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX11" t="n">
         <v>3.8</v>
       </c>
       <c r="AY11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2521,13 +2517,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J12" t="n">
         <v>5.5</v>
@@ -2572,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>51</v>
@@ -2590,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2614,13 +2610,13 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO12" t="n">
         <v>29</v>
@@ -2635,7 +2631,7 @@
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
@@ -2656,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2703,16 +2699,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
@@ -2739,28 +2735,28 @@
         <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
         <v>21</v>
@@ -2769,19 +2765,19 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
         <v>9</v>
@@ -2790,16 +2786,16 @@
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4.5</v>
@@ -2820,7 +2816,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2835,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2844,7 +2840,7 @@
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2891,22 +2887,22 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2915,10 +2911,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2939,10 +2935,10 @@
         <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2984,10 +2980,10 @@
         <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3005,7 +3001,7 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
@@ -3067,22 +3063,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3091,16 +3087,16 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3109,22 +3105,22 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
@@ -3133,7 +3129,7 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3145,10 +3141,10 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
         <v>17</v>
@@ -3160,7 +3156,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -3169,10 +3165,10 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3193,13 +3189,13 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
@@ -3249,40 +3245,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3291,22 +3287,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3315,7 +3311,7 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3348,22 +3344,22 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3431,22 +3427,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3458,13 +3454,13 @@
         <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3473,10 +3469,10 @@
         <v>3.8</v>
       </c>
       <c r="U17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V17" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="W17" t="n">
         <v>13.5</v>
@@ -3488,13 +3484,13 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
         <v>10</v>
@@ -3506,10 +3502,10 @@
         <v>11.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -3521,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3539,7 +3535,7 @@
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR17" t="n">
         <v>40</v>
@@ -3554,10 +3550,10 @@
         <v>6.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3566,7 +3562,7 @@
         <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA17" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -931,10 +931,10 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -955,10 +955,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -973,10 +973,10 @@
         <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1015,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1057,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
@@ -1118,7 +1118,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1133,31 +1133,31 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1169,7 +1169,7 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1178,10 +1178,10 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1214,13 +1214,13 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1235,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2547,10 +2547,10 @@
         <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2565,7 +2565,7 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>29</v>
@@ -2574,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA12" t="n">
         <v>41</v>
@@ -2586,13 +2586,13 @@
         <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2619,19 +2619,19 @@
         <v>7.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP12" t="n">
         <v>41</v>
       </c>
       <c r="AQ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR12" t="n">
         <v>151</v>
       </c>
       <c r="AS12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT12" t="n">
         <v>2.75</v>
@@ -2699,13 +2699,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.25</v>
@@ -2714,7 +2714,7 @@
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2729,10 +2729,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2798,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2881,22 +2881,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2905,10 +2905,10 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -2929,16 +2929,16 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
         <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2950,7 +2950,7 @@
         <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
@@ -2959,31 +2959,31 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="n">
         <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>19</v>
@@ -3001,13 +3001,13 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>41</v>
@@ -3087,16 +3087,16 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3245,40 +3245,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3293,16 +3293,16 @@
         <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3311,13 +3311,13 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
@@ -3344,22 +3344,22 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3427,151 +3427,151 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H17" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.37</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.8</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="U17" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="V17" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="W17" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR17" t="n">
         <v>40</v>
       </c>
       <c r="AS17" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AW17" t="n">
         <v>5.9</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BA17" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BC17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -747,61 +747,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -813,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -846,34 +846,34 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP2" t="n">
         <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -925,58 +925,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -988,25 +988,25 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1021,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1030,7 +1030,7 @@
         <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>26</v>
@@ -1039,13 +1039,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
@@ -1063,12 +1063,14 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>301</v>
+      </c>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1103,13 +1105,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1124,7 +1126,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1133,22 +1135,22 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
@@ -1157,19 +1159,19 @@
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1181,19 +1183,19 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1202,25 +1204,25 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1229,7 +1231,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1238,7 +1240,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1281,13 +1283,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1296,7 +1298,7 @@
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1332,16 +1334,16 @@
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1368,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1389,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -2699,55 +2701,55 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2765,22 +2767,22 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2804,7 +2806,7 @@
         <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
@@ -2813,10 +2815,10 @@
         <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2831,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2840,7 +2842,7 @@
         <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2881,55 +2883,55 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.8</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X14" t="n">
         <v>6</v>
@@ -2938,58 +2940,58 @@
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>1250</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
         <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -2998,7 +3000,7 @@
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
@@ -3007,7 +3009,7 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
         <v>41</v>
@@ -3245,28 +3247,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
         <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -3287,22 +3289,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3317,7 +3319,7 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
@@ -3344,19 +3346,19 @@
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
         <v>301</v>
@@ -3377,10 +3379,10 @@
         <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -768,7 +768,7 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
@@ -801,16 +801,16 @@
         <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>21</v>
@@ -828,7 +828,7 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -925,58 +925,58 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -985,28 +985,28 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1030,7 +1030,7 @@
         <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>26</v>
@@ -1039,13 +1039,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
@@ -1057,19 +1057,19 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1105,16 +1105,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1123,40 +1123,40 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
         <v>9.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1171,25 +1171,25 @@
         <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1201,7 +1201,7 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1234,7 +1234,7 @@
         <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1243,7 +1243,7 @@
         <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -2537,10 +2537,10 @@
         <v>2.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -3065,28 +3065,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3095,10 +3095,10 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3116,13 +3116,13 @@
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>19</v>
@@ -3143,13 +3143,13 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3158,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>41</v>
@@ -3167,10 +3167,10 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3191,13 +3191,13 @@
         <v>67</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>
@@ -3247,46 +3247,46 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
         <v>2.2</v>
@@ -3295,19 +3295,19 @@
         <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>10</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3328,43 +3328,43 @@
         <v>1250</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>9.5</v>
@@ -3373,16 +3373,16 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -928,55 +928,55 @@
         <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -985,43 +985,43 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1030,19 +1030,19 @@
         <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1057,16 +1057,16 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>351</v>
@@ -1105,112 +1105,112 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1231,22 +1231,22 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1283,22 +1283,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1307,22 +1307,22 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1340,22 +1340,22 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
         <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1364,10 +1364,10 @@
         <v>126</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1376,43 +1376,43 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-17.xlsx
@@ -925,109 +925,109 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
+        <v>21</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
         <v>17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>11</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1039,13 +1039,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>41</v>
@@ -1054,22 +1054,22 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
         <v>21</v>
       </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="inlineStr"/>
     </row>
@@ -1105,148 +1105,148 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.2</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>11</v>
       </c>
-      <c r="AI4" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>34</v>
       </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1283,28 +1283,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.18</v>
@@ -1313,10 +1313,10 @@
         <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1325,25 +1325,25 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
+        <v>11</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1352,49 +1352,49 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>12</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>41</v>
       </c>
-      <c r="AG5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
@@ -1403,28 +1403,28 @@
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
